--- a/databases/Orcus - Powers.xlsx
+++ b/databases/Orcus - Powers.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24430"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24527"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Google Drive\Obsidian\Tabletop games\d20 System or D&amp;D-esque\2021 Orcus - 4E clone\GitHub\orcus\databases\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E75314D-19AB-44FE-9AEC-2028ED94CE78}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24FFD68B-F790-4265-B339-31DA2B4AE151}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7253" uniqueCount="2618">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7349" uniqueCount="2650">
   <si>
     <t>Name</t>
   </si>
@@ -8065,6 +8065,103 @@
   </si>
   <si>
     <t>Third Mind</t>
+  </si>
+  <si>
+    <t>Overrun</t>
+  </si>
+  <si>
+    <t>Disarm</t>
+  </si>
+  <si>
+    <t>Trip</t>
+  </si>
+  <si>
+    <t>Sunder</t>
+  </si>
+  <si>
+    <t>Advanced</t>
+  </si>
+  <si>
+    <t>Strength or Dexterity</t>
+  </si>
+  <si>
+    <t>Fortitude or Reflex (whichever is higher)</t>
+  </si>
+  <si>
+    <t>You provoke an attack of opportunity from the target.</t>
+  </si>
+  <si>
+    <t>The target is knocked prone.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Choose an item. If the item is a weapon, armor, shield or enchanted cloak, the bonus granted by that item is reduced by 1 (cumulative). The effect on other items depends on their hardness and make-up. </t>
+  </si>
+  <si>
+    <t>1, one creature</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Make a secondary attack each time you attempt to enter an enemy's space. 
+*Secondary Attack:* Str vs Fort; push target 1. *Miss:* You provoke an attack of opportunity from the target. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">This is an exception to the rule that you cannot enter an enemy's space. </t>
+  </si>
+  <si>
+    <t>The target drops an item of your choice in its space.</t>
+  </si>
+  <si>
+    <t>Repel</t>
+  </si>
+  <si>
+    <t>burst 2, any vulnerable creatures</t>
+  </si>
+  <si>
+    <t>Wisdom or Charisma</t>
+  </si>
+  <si>
+    <t>Lure</t>
+  </si>
+  <si>
+    <t>Focus</t>
+  </si>
+  <si>
+    <t>Light Up</t>
+  </si>
+  <si>
+    <t>Dexterity or Intelligence</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The target takes 5 persistent fire damage (save ends). *Level 11:* 10 persistent fire damage. *Level 21:* 15 persistent fire damage. </t>
+  </si>
+  <si>
+    <t>burst 5, any vulnerable creatures</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Target pulled 5 and immobile (save ends). </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Depending on the vulnerability of the creature, the repellant might be deployed in a different space to the user. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Depending on the vulnerability of the creature, the lure might be deployed in a different space to the user. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">A disarmed creature cannot use powers with the Weapon tag that are associated with that weapon. However, if disarmed of a melee weapon, they can always make an unarmed attack with the same attack bonus, doing damage equal to 4 + their level. </t>
+  </si>
+  <si>
+    <t>You cannot use this power on the same target for the rest of the encounter.</t>
+  </si>
+  <si>
+    <t>Target pushed their speed and immobile until the end of your next turn.</t>
+  </si>
+  <si>
+    <t>Destroy Power Source</t>
+  </si>
+  <si>
+    <t>You must have a source of fire to use this power.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Choose one of the target's powers. They cannot use it until it refreshes (roll of 5 or 6 required). </t>
   </si>
 </sst>
 </file>
@@ -8910,13 +9007,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:T752"/>
+  <dimension ref="A1:T761"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B736" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B751" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="F743" sqref="F743"/>
+      <selection pane="bottomRight" activeCell="O754" sqref="O754"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -33921,7 +34018,314 @@
         <v>2615</v>
       </c>
     </row>
+    <row r="754" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A754" s="2" t="s">
+        <v>2647</v>
+      </c>
+      <c r="C754" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D754" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="E754" s="2" t="s">
+        <v>2622</v>
+      </c>
+      <c r="G754" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="H754" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="I754" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="J754" s="2" t="s">
+        <v>976</v>
+      </c>
+      <c r="M754" s="2" t="s">
+        <v>2623</v>
+      </c>
+      <c r="N754" s="2" t="s">
+        <v>2624</v>
+      </c>
+      <c r="O754" s="2" t="s">
+        <v>2649</v>
+      </c>
+    </row>
+    <row r="755" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A755" s="2" t="s">
+        <v>2619</v>
+      </c>
+      <c r="C755" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D755" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="E755" s="2" t="s">
+        <v>2622</v>
+      </c>
+      <c r="G755" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="H755" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="I755" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="J755" s="2" t="s">
+        <v>976</v>
+      </c>
+      <c r="M755" s="2" t="s">
+        <v>2623</v>
+      </c>
+      <c r="N755" s="2" t="s">
+        <v>2624</v>
+      </c>
+      <c r="O755" s="2" t="s">
+        <v>2631</v>
+      </c>
+      <c r="Q755" s="2" t="s">
+        <v>2625</v>
+      </c>
+      <c r="R755" s="2" t="s">
+        <v>2644</v>
+      </c>
+    </row>
+    <row r="756" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A756" s="2" t="s">
+        <v>2637</v>
+      </c>
+      <c r="C756" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D756" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="E756" s="2" t="s">
+        <v>2622</v>
+      </c>
+      <c r="G756" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="H756" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="I756" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="J756" s="2" t="s">
+        <v>976</v>
+      </c>
+      <c r="M756" s="2" t="s">
+        <v>2638</v>
+      </c>
+      <c r="N756" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="O756" s="2" t="s">
+        <v>2639</v>
+      </c>
+      <c r="R756" s="2" t="s">
+        <v>2648</v>
+      </c>
+    </row>
+    <row r="757" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A757" s="2" t="s">
+        <v>2635</v>
+      </c>
+      <c r="C757" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D757" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E757" s="2" t="s">
+        <v>2622</v>
+      </c>
+      <c r="G757" s="2" t="s">
+        <v>2636</v>
+      </c>
+      <c r="H757" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="I757" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="J757" s="2" t="s">
+        <v>2640</v>
+      </c>
+      <c r="M757" s="2" t="s">
+        <v>2634</v>
+      </c>
+      <c r="N757" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="O757" s="2" t="s">
+        <v>2641</v>
+      </c>
+      <c r="P757" s="2" t="s">
+        <v>2645</v>
+      </c>
+      <c r="R757" s="2" t="s">
+        <v>2643</v>
+      </c>
+    </row>
+    <row r="758" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A758" s="2" t="s">
+        <v>2618</v>
+      </c>
+      <c r="C758" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D758" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="E758" s="2" t="s">
+        <v>2622</v>
+      </c>
+      <c r="G758" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="H758" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="I758" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="J758" s="2" t="s">
+        <v>2628</v>
+      </c>
+      <c r="Q758" s="2" t="s">
+        <v>2629</v>
+      </c>
+      <c r="R758" s="2" t="s">
+        <v>2630</v>
+      </c>
+    </row>
+    <row r="759" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A759" s="2" t="s">
+        <v>2632</v>
+      </c>
+      <c r="C759" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D759" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="E759" s="2" t="s">
+        <v>2622</v>
+      </c>
+      <c r="G759" s="2" t="s">
+        <v>2636</v>
+      </c>
+      <c r="H759" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="I759" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="J759" s="2" t="s">
+        <v>2633</v>
+      </c>
+      <c r="M759" s="2" t="s">
+        <v>2634</v>
+      </c>
+      <c r="N759" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="O759" s="2" t="s">
+        <v>2646</v>
+      </c>
+      <c r="P759" s="2" t="s">
+        <v>2645</v>
+      </c>
+      <c r="R759" s="2" t="s">
+        <v>2642</v>
+      </c>
+    </row>
+    <row r="760" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A760" s="2" t="s">
+        <v>2621</v>
+      </c>
+      <c r="C760" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D760" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="E760" s="2" t="s">
+        <v>2622</v>
+      </c>
+      <c r="G760" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="H760" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="I760" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="J760" s="2" t="s">
+        <v>976</v>
+      </c>
+      <c r="M760" s="2" t="s">
+        <v>2623</v>
+      </c>
+      <c r="N760" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="O760" s="2" t="s">
+        <v>2627</v>
+      </c>
+      <c r="Q760" s="2" t="s">
+        <v>2625</v>
+      </c>
+    </row>
+    <row r="761" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A761" s="2" t="s">
+        <v>2620</v>
+      </c>
+      <c r="C761" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D761" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="E761" s="2" t="s">
+        <v>2622</v>
+      </c>
+      <c r="G761" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="H761" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="I761" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="J761" s="2" t="s">
+        <v>976</v>
+      </c>
+      <c r="M761" s="2" t="s">
+        <v>2623</v>
+      </c>
+      <c r="N761" s="2" t="s">
+        <v>2624</v>
+      </c>
+      <c r="O761" s="2" t="s">
+        <v>2626</v>
+      </c>
+      <c r="Q761" s="2" t="s">
+        <v>2625</v>
+      </c>
+    </row>
   </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A754:T761">
+    <sortCondition ref="A754:A761"/>
+  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
